--- a/medicine/Pharmacie/Mölnlycke_Health_Care/Mölnlycke_Health_Care.xlsx
+++ b/medicine/Pharmacie/Mölnlycke_Health_Care/Mölnlycke_Health_Care.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%B6lnlycke_Health_Care</t>
+          <t>Mölnlycke_Health_Care</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mölnlycke Health Care est un des principaux fabricants mondiaux de solutions à usage unique pour le bloc opératoire et le traitement de la plaie pour les professionnels de la santé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%B6lnlycke_Health_Care</t>
+          <t>Mölnlycke_Health_Care</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1940 Avec Mesorb, le principe du pansement Mölnlycke est inventé
 1950 Le 1er drapage à usage unique[réf. nécessaire] de Mölnlycke est lancé
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%B6lnlycke_Health_Care</t>
+          <t>Mölnlycke_Health_Care</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,13 +566,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Division Traitement de la plaie
-La division Traitement de la plaie développe et fabrique des produits pour le traitement de la plaie : plaies chroniques, plaies postopératoires, plaies aiguës et brûlures ainsi que des produits complémentaires à but thérapeutique ou dermatologique.
+          <t>Division Traitement de la plaie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La division Traitement de la plaie développe et fabrique des produits pour le traitement de la plaie : plaies chroniques, plaies postopératoires, plaies aiguës et brûlures ainsi que des produits complémentaires à but thérapeutique ou dermatologique.
 La division Traitement de la plaie compte deux gammes :
 gamme des produits sophistiqués (dont les pansements de technologie Safetac comme Mepilex ou Mepitel)
-gamme des produits traditionnels (Mefix, Mepore, Mesoft par exemple)
-Division Chirurgie
-La division Chirurgie développe et fabrique une large gamme de produits à usage unique, permettant de minimiser les risques au bloc opératoire pour les patients et les professionnels de santé.
+gamme des produits traditionnels (Mefix, Mepore, Mesoft par exemple)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mölnlycke_Health_Care</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%B6lnlycke_Health_Care</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Division Chirurgie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La division Chirurgie développe et fabrique une large gamme de produits à usage unique, permettant de minimiser les risques au bloc opératoire pour les patients et les professionnels de santé.
 La division Chirurgie s'occupe de différents domaines :
 le drapage et l'habillage (Barrier)
 les trousses chirurgicales personnalisées (ProcedurePak)
@@ -567,38 +620,77 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M%C3%B6lnlycke_Health_Care</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mölnlycke_Health_Care</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%B6lnlycke_Health_Care</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Implantation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bureaux
-18 bureaux  Europe/Moyen-Orient/ Afrique
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bureaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>18 bureaux  Europe/Moyen-Orient/ Afrique
 deux bureaux en Amérique du Nord ;
-quatre bureaux en Asie/Pacifique.
-Sites de production
-Gamme Traitement de la plaie :
+quatre bureaux en Asie/Pacifique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mölnlycke_Health_Care</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%B6lnlycke_Health_Care</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Implantation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sites de production</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gamme Traitement de la plaie :
 Mikkeli,  Finlande
 Oldham,  Angleterre
 Gammes pour le bloc opératoire :
